--- a/Milch.xlsx
+++ b/Milch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -276,6 +276,102 @@
   </si>
   <si>
     <t>Glucosesirup, Kokosfett, Milcheiweiß, ...</t>
+  </si>
+  <si>
+    <t>NADURIA Protein Vegan Pur ungesüßt</t>
+  </si>
+  <si>
+    <t>70% Hanf, 25% Macadamia, 5% Mandel</t>
+  </si>
+  <si>
+    <t>SPAR Veggie Veganer Bio Drink Mandel</t>
+  </si>
+  <si>
+    <t>Wasser, Mandeln 2,5%, Maltodextrin, Emulgator: Lecithine, Salz unjodiert</t>
+  </si>
+  <si>
+    <t>DM Bio Reis Drink Natur</t>
+  </si>
+  <si>
+    <t>Wasser, 13% fermentierter Reis*, Sonnenblumenöl*, Meersalz</t>
+  </si>
+  <si>
+    <t>DM Bio Mandel Drink Natur</t>
+  </si>
+  <si>
+    <t>Wasser, Mandelpaste 3%, Meersalz</t>
+  </si>
+  <si>
+    <t>SPAR Veggie Veganer Bio Drink Reis</t>
+  </si>
+  <si>
+    <t>Wasser, 13% Reis, Sonnenblumenöl, Meersalz unjodiert</t>
+  </si>
+  <si>
+    <t>SPAR Veggie Veganer Bio Drink Soja</t>
+  </si>
+  <si>
+    <t>Wasser, 8,6% Sojabohnen, Calciumcarbonat, Riboflavin (Vitamin B2), Vitamin D, Vitamin B12</t>
+  </si>
+  <si>
+    <t>ALPRO Sojadrink die Leichte Fettarm</t>
+  </si>
+  <si>
+    <t>Wasser, geschälte Sojabohnen (5,6 %), lösliche Maisfasern, Fruktose, Zucker, Calciumcarbonat, Säureregulator (Kaliumphosphate), Meersalz, Aroma, Stabilisator (Gellangummi), Vitamine (B2, B12, D)</t>
+  </si>
+  <si>
+    <t>MY VAY Bio Mandel Drink Hofer</t>
+  </si>
+  <si>
+    <t>Wasser, 2,3 % Mandeln, Maltodextrin, Emulgator: Lecithine, Salz</t>
+  </si>
+  <si>
+    <t>VEMONDO Bio Mandel Drink Lidl</t>
+  </si>
+  <si>
+    <t>Wasser, 2,3% Mandeln geröstet', Meersalz</t>
+  </si>
+  <si>
+    <t>DM Bio Kokos Drink Natur</t>
+  </si>
+  <si>
+    <t>Wasser, Kokosnussmehl teilentölt (7,5%), Kokosmilch (6%), Meersalz, Verdickungsmittel: Guarkernmehl</t>
+  </si>
+  <si>
+    <t>BIO PRIMO Kokos Drink Natur Müller</t>
+  </si>
+  <si>
+    <t>Wasser, Leichte Kokosmilch 40%, Kokosnusssaft aus Kokosnusssaftkonzentrat 23%, Meersalz, Verdickungsmittel: Gellan</t>
+  </si>
+  <si>
+    <t>VEMONDO Bio Kokonuss mit Reis</t>
+  </si>
+  <si>
+    <t>Wasser, 5,6% Bio Kokosnussmilch, 3,5% Bio Reis, Meersalz, Stabilisatoren: Bio Guarkernmehl, Gellan, Xanthan; natürliches Kokosnuss-Aroma.</t>
+  </si>
+  <si>
+    <t>ALPRO Kokos Drink ohne Zucker</t>
+  </si>
+  <si>
+    <t>Wasser, Kokosmilch (7%) (Kokoscreme, Wasser), Kokosnusswasser (2,6%), Tricalciumphosphat, natürliches Kokosaroma, Stabilisatoren (Guarkernmehl, Xanthan, Gellan), Meersalz, Vitamine (B12, D2)</t>
+  </si>
+  <si>
+    <t>ALPRO Mandel Drink ohne Zucker</t>
+  </si>
+  <si>
+    <t>Wasser, Mandeln (2,3%), Zucker, Tricalciumphosphat, Meersalz, Stabilisatoren (Johannisbrotkernmehl, Gellan), Emulgator (Lecithine (Sonnenblumen)), natürliches Aroma, Vitamine (B2, B12, E, D2)</t>
+  </si>
+  <si>
+    <t>JOYA Mandel Drink ohne Zucker</t>
+  </si>
+  <si>
+    <t>Wasser, Mandeln 2%, Calciumcarbonat, Verdickungsmittel: Gellangummi, Guarkernmehl; Emulgator: Lecithine; Salz</t>
+  </si>
+  <si>
+    <t>DENNREE Mandel Drink ohne Zucker</t>
+  </si>
+  <si>
+    <t>Wasser, Mandeln (2,5%), Maltodextrin, Emulgator: Lecithine; Meersalz</t>
   </si>
   <si>
     <t>Malz</t>
@@ -708,14 +804,14 @@
         <v>35.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K33" si="1">J2/I2</f>
+        <f t="shared" ref="K2:K49" si="1">J2/I2</f>
         <v>35</v>
       </c>
       <c r="L2" s="1">
         <v>55.0</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M33" si="2">L2/H2</f>
+        <f t="shared" ref="M2:M44" si="2">L2/H2</f>
         <v>1</v>
       </c>
       <c r="N2" s="1">
@@ -2245,52 +2341,788 @@
       </c>
     </row>
     <row r="34">
-      <c r="M34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1">
+        <v>360.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="J34" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>9.242424242</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8414634146</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="35">
-      <c r="M35" s="3"/>
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1666666667</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36">
-      <c r="M36" s="3"/>
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9.3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.09090909091</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7204301075</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="37">
-      <c r="M37" s="3"/>
+      <c r="A37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4736842105</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38">
-      <c r="M38" s="3"/>
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="L38" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5818181818</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39">
-      <c r="M39" s="3"/>
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>1.727272727</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40">
-      <c r="M40" s="3"/>
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>2.083333333</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8823529412</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41">
-      <c r="M41" s="3"/>
+      <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4545454545</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="42">
-      <c r="M42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4545454545</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="43">
-      <c r="M43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3333333333</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="44">
-      <c r="M44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6363636364</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="45">
-      <c r="M45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.07692307692</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" ref="M45:M49" si="3">L45/$H$45</f>
+        <v>0.7037037037</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.098</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46">
-      <c r="M46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.08333333333</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="47">
-      <c r="M47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3636363636</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="48">
-      <c r="M48" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3333333333</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="49">
-      <c r="M49" s="3"/>
+      <c r="A49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1851851852</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="50">
       <c r="M50" s="3"/>
@@ -5164,7 +5996,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -5184,7 +6016,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -5216,7 +6048,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -5248,7 +6080,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
@@ -5280,7 +6112,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -5312,7 +6144,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -5344,7 +6176,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -5376,7 +6208,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -5408,7 +6240,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
@@ -5440,7 +6272,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -5472,7 +6304,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -5504,7 +6336,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -5536,10 +6368,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -5568,7 +6400,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -5600,7 +6432,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -5632,7 +6464,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -5664,7 +6496,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -5696,7 +6528,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -5728,7 +6560,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -5760,7 +6592,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -5792,7 +6624,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -5824,7 +6656,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -5856,7 +6688,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
